--- a/biology/Médecine/Jean-Paul_Séguéla/Jean-Paul_Séguéla.xlsx
+++ b/biology/Médecine/Jean-Paul_Séguéla/Jean-Paul_Séguéla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Paul_S%C3%A9gu%C3%A9la</t>
+          <t>Jean-Paul_Séguéla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean-Paul Séguéla, né le 21 février 1938 à Toulouse[1] et mort le 16 septembre 2009 dans la même ville, est un professeur de médecine et homme politique français. 
+Jean-Paul Séguéla, né le 21 février 1938 à Toulouse et mort le 16 septembre 2009 dans la même ville, est un professeur de médecine et homme politique français. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Paul_S%C3%A9gu%C3%A9la</t>
+          <t>Jean-Paul_Séguéla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Étude et famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils d'André Séguéla, un officier de marine et de Mme Suzanne, née Bénazet. Il se marie le 14 mai 1968 à Mlle Marie-Pierre Grimal. Ensemble, ils ont quatre enfants (Anne-Bernarde, Jordane (décédée), Laure-Emilie et Jeanne)[2].
-Jean-Paul Séguéla effectue ses études au Lycée Pierre-de-Fermat, puis à la Faculté de médecine et à l'Institut Pasteur de Paris. Il en sort docteur en médecine, certificats d'étude spéciales de parasitologie médicale et technique, d'immunologie générale et appliquée, d'étude supérieures de génétique humaine, maîtrise de biologie humaine, diplôme d'études approfondies et de recherche en biologie humaine[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils d'André Séguéla, un officier de marine et de Mme Suzanne, née Bénazet. Il se marie le 14 mai 1968 à Mlle Marie-Pierre Grimal. Ensemble, ils ont quatre enfants (Anne-Bernarde, Jordane (décédée), Laure-Emilie et Jeanne).
+Jean-Paul Séguéla effectue ses études au Lycée Pierre-de-Fermat, puis à la Faculté de médecine et à l'Institut Pasteur de Paris. Il en sort docteur en médecine, certificats d'étude spéciales de parasitologie médicale et technique, d'immunologie générale et appliquée, d'étude supérieures de génétique humaine, maîtrise de biologie humaine, diplôme d'études approfondies et de recherche en biologie humaine. 
 Il est doyen de la faculté de médecine de Rangueil de 1983 à 2005.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Paul_S%C3%A9gu%C3%A9la</t>
+          <t>Jean-Paul_Séguéla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Détail des fonctions et des mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mandat parlementaire
 2 avril 1986 - 8 juillet 1986 : Député de la Haute-Garonne
@@ -553,7 +569,7 @@
 Mandat local
 Conseiller général de Montastruc-la-Conseillère de 1979 à 1998.
 Maire de Bessières : 1977 à 2001.
-Ancien conseiller de Charles Pasqua, Jean-Paul Séguela, a été condamné[Quand ?] à trois ans de prison dont deux avec sursis, plus 50 000 euros d'amende. L'ex-Monsieur Drogue du ministère de l'Intérieur 1993 à 1995, écope également d'une interdiction de quatre ans de ses droits civiques. En première instance, sa peine de prison ferme était de deux ans.[réf. nécessaire][3]
+Ancien conseiller de Charles Pasqua, Jean-Paul Séguela, a été condamné[Quand ?] à trois ans de prison dont deux avec sursis, plus 50 000 euros d'amende. L'ex-Monsieur Drogue du ministère de l'Intérieur 1993 à 1995, écope également d'une interdiction de quatre ans de ses droits civiques. En première instance, sa peine de prison ferme était de deux ans.[réf. nécessaire]
 </t>
         </is>
       </c>
